--- a/report.xlsx
+++ b/report.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="SpotUsage" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="BoxUsage" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="HeavyUsage" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Persistent Disk" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Cloud Storage" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Load Balancer" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Network Egress" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Idle Addresses" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Uncomputed" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpotUsage" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoxUsage" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HeavyUsage" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persistent Disk" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cloud Storage" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Load Balancer" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Network Egress" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Idle Addresses" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uncomputed" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26,7 +26,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="$0.00" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="$0.00"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -70,21 +70,89 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,13 +453,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="20"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="20"/>
-    <col customWidth="1" max="6" min="6" width="15"/>
-    <col customWidth="1" max="7" min="7" width="15"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,7 +528,7 @@
         </is>
       </c>
       <c r="F4" s="3">
-        <f>SUM(SpotUsage!G:G)</f>
+        <f>SUM(SpotUsage!E:E)</f>
         <v/>
       </c>
       <c r="G4" s="4">
@@ -490,7 +558,7 @@
         </is>
       </c>
       <c r="F5" s="3">
-        <f>SUM(BoxUsage!G:G)</f>
+        <f>SUM(BoxUsage!E:E)</f>
         <v/>
       </c>
       <c r="G5" s="4">
@@ -520,7 +588,7 @@
         </is>
       </c>
       <c r="F6" s="3">
-        <f>SUM(HeavyUsage!G:G)</f>
+        <f>SUM(HeavyUsage!E:E)</f>
         <v/>
       </c>
       <c r="G6" s="4">
@@ -533,12 +601,12 @@
       <c r="B7" s="2" t="inlineStr"/>
       <c r="C7" s="2" t="inlineStr"/>
       <c r="D7" s="3">
-        <f>SUM(D5:D6)</f>
+        <f>SUM(D4:D6)</f>
         <v/>
       </c>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="3">
-        <f>SUM(F5:F6)</f>
+        <f>SUM(F4:F6)</f>
         <v/>
       </c>
       <c r="G7" s="4">
@@ -568,7 +636,7 @@
         </is>
       </c>
       <c r="F8" s="3">
-        <f>SUM('Persistent Disk'!G:G)</f>
+        <f>SUM('Persistent Disk'!E:E)</f>
         <v/>
       </c>
       <c r="G8" s="4">
@@ -598,7 +666,7 @@
         </is>
       </c>
       <c r="F9" s="3">
-        <f>SUM('Cloud Storage'!G:G)</f>
+        <f>SUM('Cloud Storage'!E:E)</f>
         <v/>
       </c>
       <c r="G9" s="4">
@@ -646,7 +714,7 @@
         </is>
       </c>
       <c r="F11" s="3">
-        <f>SUM('Load Balancer'!G:G)</f>
+        <f>SUM('Load Balancer'!E:E)</f>
         <v/>
       </c>
       <c r="G11" s="4">
@@ -704,7 +772,7 @@
         </is>
       </c>
       <c r="F13" s="3">
-        <f>SUM('Network Egress'!E:E)</f>
+        <f>SUM('Network Egress'!C:C)</f>
         <v/>
       </c>
       <c r="G13" s="4">
@@ -734,7 +802,7 @@
         </is>
       </c>
       <c r="F14" s="3">
-        <f>SUM('Idle Addresses'!G:G)</f>
+        <f>SUM('Idle Addresses'!E:E)</f>
         <v/>
       </c>
       <c r="G14" s="4">
@@ -837,7 +905,7 @@
         </is>
       </c>
       <c r="D19" s="3">
-        <f>SUM('Uncomputed'!G:G)</f>
+        <f>SUM('Uncomputed'!E:E)</f>
         <v/>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -846,7 +914,7 @@
         </is>
       </c>
       <c r="F19" s="3">
-        <f>SUM('Uncomputed'!G:G)</f>
+        <f>SUM('Uncomputed'!E:E)</f>
         <v/>
       </c>
       <c r="G19" s="4">
@@ -902,7 +970,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -938,17 +1006,17 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>TotalCost</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>BlendedRate</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>UsageQuantity</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>TotalCost</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>BlendedRate</t>
         </is>
       </c>
     </row>
@@ -973,13 +1041,13 @@
         </is>
       </c>
       <c r="E3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.251877816725088e-06</v>
+      </c>
+      <c r="G3" t="n">
         <v>7988</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.251877816725088e-06</v>
       </c>
     </row>
     <row r="4">
@@ -1002,13 +1070,13 @@
         </is>
       </c>
       <c r="E4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.266143327424664e-06</v>
+      </c>
+      <c r="G4" t="n">
         <v>7898</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.266143327424664e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1031,13 +1099,13 @@
         </is>
       </c>
       <c r="E5" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.02099495994282227</v>
+      </c>
+      <c r="G5" t="n">
         <v>837.34382194</v>
-      </c>
-      <c r="F5" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.02099495994282227</v>
       </c>
     </row>
     <row r="6">
@@ -1060,13 +1128,13 @@
         </is>
       </c>
       <c r="E6" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02110774927869096</v>
+      </c>
+      <c r="G6" t="n">
         <v>27.9518196</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.02110774927869096</v>
       </c>
     </row>
     <row r="7">
@@ -1089,13 +1157,13 @@
         </is>
       </c>
       <c r="E7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.999042744103109e-07</v>
+      </c>
+      <c r="G7" t="n">
         <v>15757542</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.999042744103109e-07</v>
       </c>
     </row>
     <row r="8">
@@ -1118,13 +1186,13 @@
         </is>
       </c>
       <c r="E8" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.09997064062226205</v>
+      </c>
+      <c r="G8" t="n">
         <v>99.02907432000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.09997064062226205</v>
       </c>
     </row>
     <row r="9">
@@ -1147,13 +1215,13 @@
         </is>
       </c>
       <c r="E9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G9" t="n">
         <v>93</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.02</v>
       </c>
     </row>
     <row r="10">
@@ -1176,13 +1244,13 @@
         </is>
       </c>
       <c r="E10" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.036985827860352e-06</v>
+      </c>
+      <c r="G10" t="n">
         <v>28930</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.036985827860352e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1205,13 +1273,13 @@
         </is>
       </c>
       <c r="E11" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.948269001193791e-07</v>
+      </c>
+      <c r="G11" t="n">
         <v>291508</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9.948269001193791e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1234,13 +1302,13 @@
         </is>
       </c>
       <c r="E12" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.09999422900572889</v>
+      </c>
+      <c r="G12" t="n">
         <v>355.62052284</v>
-      </c>
-      <c r="F12" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.09999422900572889</v>
       </c>
     </row>
     <row r="13">
@@ -1263,13 +1331,13 @@
         </is>
       </c>
       <c r="E13" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3000456594965037</v>
+      </c>
+      <c r="G13" t="n">
         <v>77.68817599</v>
-      </c>
-      <c r="F13" t="n">
-        <v>23.31</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.3000456594965037</v>
       </c>
     </row>
     <row r="14">
@@ -1292,13 +1360,13 @@
         </is>
       </c>
       <c r="E14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.003001261034047919</v>
+      </c>
+      <c r="G14" t="n">
         <v>793</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.003001261034047919</v>
       </c>
     </row>
     <row r="15">
@@ -1321,13 +1389,13 @@
         </is>
       </c>
       <c r="E15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.885197950835595e-07</v>
+      </c>
+      <c r="G15" t="n">
         <v>180171</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.885197950835595e-07</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1418,13 @@
         </is>
       </c>
       <c r="E16" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.014893036700925</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.20564577</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3.014893036700925</v>
       </c>
     </row>
     <row r="17">
@@ -1379,13 +1447,13 @@
         </is>
       </c>
       <c r="E17" t="n">
+        <v>650.6799999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.999993360437637</v>
+      </c>
+      <c r="G17" t="n">
         <v>216.89381336</v>
-      </c>
-      <c r="F17" t="n">
-        <v>650.6799999999999</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2.999993360437637</v>
       </c>
     </row>
     <row r="18">
@@ -1408,13 +1476,13 @@
         </is>
       </c>
       <c r="E18" t="n">
+        <v>270</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.134999999649</v>
+      </c>
+      <c r="G18" t="n">
         <v>2000.0000052</v>
-      </c>
-      <c r="F18" t="n">
-        <v>270</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.134999999649</v>
       </c>
     </row>
     <row r="19">
@@ -1437,13 +1505,13 @@
         </is>
       </c>
       <c r="E19" t="n">
+        <v>276.77</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1860013440860215</v>
+      </c>
+      <c r="G19" t="n">
         <v>1488</v>
-      </c>
-      <c r="F19" t="n">
-        <v>276.77</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.1860013440860215</v>
       </c>
     </row>
     <row r="20">
@@ -1466,13 +1534,13 @@
         </is>
       </c>
       <c r="E20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.4000000914285923</v>
+      </c>
+      <c r="G20" t="n">
         <v>6.9999984</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.4000000914285923</v>
       </c>
     </row>
     <row r="21">
@@ -1495,13 +1563,13 @@
         </is>
       </c>
       <c r="E21" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2998896256854843</v>
+      </c>
+      <c r="G21" t="n">
         <v>16.07258</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2998896256854843</v>
       </c>
     </row>
     <row r="22">
@@ -1524,13 +1592,13 @@
         </is>
       </c>
       <c r="E22" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.215982057509196e-06</v>
+      </c>
+      <c r="G22" t="n">
         <v>296057</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.215982057509196e-06</v>
       </c>
     </row>
     <row r="23">
@@ -1553,13 +1621,13 @@
         </is>
       </c>
       <c r="E23" t="n">
+        <v>20.76</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.199975237505215e-06</v>
+      </c>
+      <c r="G23" t="n">
         <v>17300357</v>
-      </c>
-      <c r="F23" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.199975237505215e-06</v>
       </c>
     </row>
     <row r="24">
@@ -1582,13 +1650,13 @@
         </is>
       </c>
       <c r="E24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7.598784194528875e-07</v>
+      </c>
+      <c r="G24" t="n">
         <v>13160</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7.598784194528875e-07</v>
       </c>
     </row>
     <row r="25">
@@ -1611,13 +1679,13 @@
         </is>
       </c>
       <c r="E25" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9.958175662218682e-06</v>
+      </c>
+      <c r="G25" t="n">
         <v>55231</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G25" t="n">
-        <v>9.958175662218682e-06</v>
       </c>
     </row>
     <row r="26">
@@ -1640,13 +1708,13 @@
         </is>
       </c>
       <c r="E26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.003489914926355e-05</v>
+      </c>
+      <c r="G26" t="n">
         <v>89687</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.003489914926355e-05</v>
       </c>
     </row>
     <row r="27">
@@ -1669,13 +1737,13 @@
         </is>
       </c>
       <c r="E27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.003489914926355e-05</v>
+      </c>
+      <c r="G27" t="n">
         <v>89687</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.003489914926355e-05</v>
       </c>
     </row>
     <row r="28">
@@ -1698,13 +1766,13 @@
         </is>
       </c>
       <c r="E28" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9990601844037199</v>
+      </c>
+      <c r="G28" t="n">
         <v>3.13294439</v>
-      </c>
-      <c r="F28" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.9990601844037199</v>
       </c>
     </row>
     <row r="29">
@@ -1727,13 +1795,13 @@
         </is>
       </c>
       <c r="E29" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5.00485796794008</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.78323901</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="G29" t="n">
-        <v>5.00485796794008</v>
       </c>
     </row>
     <row r="30">
@@ -1756,13 +1824,13 @@
         </is>
       </c>
       <c r="E30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G30" t="n">
         <v>11</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="31">
@@ -1785,13 +1853,13 @@
         </is>
       </c>
       <c r="E31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.064962726304579e-06</v>
+      </c>
+      <c r="G31" t="n">
         <v>9390</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.064962726304579e-06</v>
       </c>
     </row>
     <row r="32">
@@ -1814,13 +1882,13 @@
         </is>
       </c>
       <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9999995200002304</v>
+      </c>
+      <c r="G32" t="n">
         <v>3.00000144</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.9999995200002304</v>
       </c>
     </row>
     <row r="33">
@@ -1843,13 +1911,13 @@
         </is>
       </c>
       <c r="E33" t="n">
+        <v>431.52</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G33" t="n">
         <v>1488</v>
-      </c>
-      <c r="F33" t="n">
-        <v>431.52</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.29</v>
       </c>
     </row>
     <row r="34">
@@ -1872,13 +1940,13 @@
         </is>
       </c>
       <c r="E34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.737921445950643e-06</v>
+      </c>
+      <c r="G34" t="n">
         <v>5754</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.737921445950643e-06</v>
       </c>
     </row>
     <row r="35">
@@ -1901,13 +1969,13 @@
         </is>
       </c>
       <c r="E35" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.00828519156035369</v>
+      </c>
+      <c r="G35" t="n">
         <v>10.86275427</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.00828519156035369</v>
       </c>
     </row>
     <row r="36">
@@ -1930,13 +1998,13 @@
         </is>
       </c>
       <c r="E36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4.342574875490236e-05</v>
+      </c>
+      <c r="G36" t="n">
         <v>460.55625</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G36" t="n">
-        <v>4.342574875490236e-05</v>
       </c>
     </row>
     <row r="37">
@@ -1959,13 +2027,13 @@
         </is>
       </c>
       <c r="E37" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5.430798055774296e-07</v>
+      </c>
+      <c r="G37" t="n">
         <v>73654</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G37" t="n">
-        <v>5.430798055774296e-07</v>
       </c>
     </row>
     <row r="38">
@@ -1988,13 +2056,13 @@
         </is>
       </c>
       <c r="E38" t="n">
+        <v>170.24</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.666623878908262e-05</v>
+      </c>
+      <c r="G38" t="n">
         <v>10214662.2375</v>
-      </c>
-      <c r="F38" t="n">
-        <v>170.24</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.666623878908262e-05</v>
       </c>
     </row>
     <row r="39">
@@ -2017,13 +2085,13 @@
         </is>
       </c>
       <c r="E39" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="G39" t="n">
         <v>3720</v>
-      </c>
-      <c r="F39" t="n">
-        <v>83.7</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.0225</v>
       </c>
     </row>
     <row r="40">
@@ -2046,13 +2114,13 @@
         </is>
       </c>
       <c r="E40" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.01700268817204301</v>
+      </c>
+      <c r="G40" t="n">
         <v>744</v>
-      </c>
-      <c r="F40" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.01700268817204301</v>
       </c>
     </row>
     <row r="41">
@@ -2075,13 +2143,13 @@
         </is>
       </c>
       <c r="E41" t="n">
+        <v>50.59</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0339986559139785</v>
+      </c>
+      <c r="G41" t="n">
         <v>1488</v>
-      </c>
-      <c r="F41" t="n">
-        <v>50.59</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.0339986559139785</v>
       </c>
     </row>
     <row r="42">
@@ -2104,13 +2172,13 @@
         </is>
       </c>
       <c r="E42" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.03400537634408602</v>
+      </c>
+      <c r="G42" t="n">
         <v>744</v>
-      </c>
-      <c r="F42" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.03400537634408602</v>
       </c>
     </row>
     <row r="43">
@@ -2133,13 +2201,13 @@
         </is>
       </c>
       <c r="E43" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.09513841662022471</v>
+      </c>
+      <c r="G43" t="n">
         <v>5.15039053</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.09513841662022471</v>
       </c>
     </row>
     <row r="44">
@@ -2162,13 +2230,13 @@
         </is>
       </c>
       <c r="E44" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0001300078298316586</v>
+      </c>
+      <c r="G44" t="n">
         <v>245216</v>
-      </c>
-      <c r="F44" t="n">
-        <v>31.88</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.0001300078298316586</v>
       </c>
     </row>
     <row r="45">
@@ -2191,13 +2259,13 @@
         </is>
       </c>
       <c r="E45" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.505321488420776e-07</v>
+      </c>
+      <c r="G45" t="n">
         <v>1077706</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2.505321488420776e-07</v>
       </c>
     </row>
     <row r="46">
@@ -2220,13 +2288,13 @@
         </is>
       </c>
       <c r="E46" t="n">
+        <v>49.14</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.000003345548942e-07</v>
+      </c>
+      <c r="G46" t="n">
         <v>245699589</v>
-      </c>
-      <c r="F46" t="n">
-        <v>49.14</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2.000003345548942e-07</v>
       </c>
     </row>
     <row r="47">
@@ -2249,13 +2317,13 @@
         </is>
       </c>
       <c r="E47" t="n">
+        <v>143.28</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6.257533480937694e-07</v>
+      </c>
+      <c r="G47" t="n">
         <v>228972007</v>
-      </c>
-      <c r="F47" t="n">
-        <v>143.28</v>
-      </c>
-      <c r="G47" t="n">
-        <v>6.257533480937694e-07</v>
       </c>
     </row>
     <row r="48">
@@ -2278,13 +2346,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F48" t="n">
         <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2307,13 +2375,13 @@
         </is>
       </c>
       <c r="E49" t="n">
+        <v>49.76</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.015621509359158</v>
+      </c>
+      <c r="G49" t="n">
         <v>48.99462993</v>
-      </c>
-      <c r="F49" t="n">
-        <v>49.76</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.015621509359158</v>
       </c>
     </row>
     <row r="50">
@@ -2336,13 +2404,13 @@
         </is>
       </c>
       <c r="E50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.907668828691339e-06</v>
+      </c>
+      <c r="G50" t="n">
         <v>5242</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1.907668828691339e-06</v>
       </c>
     </row>
     <row r="51">
@@ -2365,13 +2433,13 @@
         </is>
       </c>
       <c r="E51" t="n">
+        <v>78.12</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G51" t="n">
         <v>5208</v>
-      </c>
-      <c r="F51" t="n">
-        <v>78.12</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.015</v>
       </c>
     </row>
     <row r="52">
@@ -2394,13 +2462,13 @@
         </is>
       </c>
       <c r="E52" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1000010606634239</v>
+      </c>
+      <c r="G52" t="n">
         <v>13.79985363</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.1000010606634239</v>
       </c>
     </row>
     <row r="53">
@@ -2423,13 +2491,13 @@
         </is>
       </c>
       <c r="E53" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9.999174564784249e-07</v>
+      </c>
+      <c r="G53" t="n">
         <v>2980246</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="G53" t="n">
-        <v>9.999174564784249e-07</v>
       </c>
     </row>
     <row r="54">
@@ -2452,13 +2520,13 @@
         </is>
       </c>
       <c r="E54" t="n">
+        <v>210.98</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.000020191895049e-06</v>
+      </c>
+      <c r="G54" t="n">
         <v>210975740</v>
-      </c>
-      <c r="F54" t="n">
-        <v>210.98</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1.000020191895049e-06</v>
       </c>
     </row>
     <row r="55">
@@ -2481,13 +2549,13 @@
         </is>
       </c>
       <c r="E55" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.3999998511304901</v>
+      </c>
+      <c r="G55" t="n">
         <v>23.00000856</v>
-      </c>
-      <c r="F55" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.3999998511304901</v>
       </c>
     </row>
     <row r="56">
@@ -2510,13 +2578,13 @@
         </is>
       </c>
       <c r="E56" t="n">
+        <v>794.74</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3.499984484931751e-06</v>
+      </c>
+      <c r="G56" t="n">
         <v>227069578</v>
-      </c>
-      <c r="F56" t="n">
-        <v>794.74</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3.499984484931751e-06</v>
       </c>
     </row>
     <row r="57">
@@ -2539,13 +2607,13 @@
         </is>
       </c>
       <c r="E57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.03108181049556901</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.32173158</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.03108181049556901</v>
       </c>
     </row>
     <row r="58">
@@ -2568,13 +2636,13 @@
         </is>
       </c>
       <c r="E58" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.001000189071658158</v>
+      </c>
+      <c r="G58" t="n">
         <v>15867</v>
-      </c>
-      <c r="F58" t="n">
-        <v>15.87</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.001000189071658158</v>
       </c>
     </row>
     <row r="59">
@@ -2597,13 +2665,13 @@
         </is>
       </c>
       <c r="E59" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.000209572205772e-05</v>
+      </c>
+      <c r="G59" t="n">
         <v>821827.76774195</v>
-      </c>
-      <c r="F59" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1.000209572205772e-05</v>
       </c>
     </row>
     <row r="60">
@@ -2626,13 +2694,13 @@
         </is>
       </c>
       <c r="E60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.012453174040701e-06</v>
+      </c>
+      <c r="G60" t="n">
         <v>98770</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1.012453174040701e-06</v>
       </c>
     </row>
     <row r="61">
@@ -2655,13 +2723,13 @@
         </is>
       </c>
       <c r="E61" t="n">
+        <v>148.64</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.4999838639491787</v>
+      </c>
+      <c r="G61" t="n">
         <v>297.28959416</v>
-      </c>
-      <c r="F61" t="n">
-        <v>148.64</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.4999838639491787</v>
       </c>
     </row>
     <row r="62">
@@ -2684,13 +2752,13 @@
         </is>
       </c>
       <c r="E62" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.005038641655975263</v>
+      </c>
+      <c r="G62" t="n">
         <v>69.46316564999999</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.005038641655975263</v>
       </c>
     </row>
     <row r="63">
@@ -2713,13 +2781,13 @@
         </is>
       </c>
       <c r="E63" t="n">
+        <v>132.37</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.004445084485660167</v>
+      </c>
+      <c r="G63" t="n">
         <v>29778.96155338</v>
-      </c>
-      <c r="F63" t="n">
-        <v>132.37</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.004445084485660167</v>
       </c>
     </row>
     <row r="64">
@@ -2742,13 +2810,13 @@
         </is>
       </c>
       <c r="E64" t="n">
+        <v>301.36</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.04047958481834998</v>
+      </c>
+      <c r="G64" t="n">
         <v>7444.74038833</v>
-      </c>
-      <c r="F64" t="n">
-        <v>301.36</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.04047958481834998</v>
       </c>
     </row>
     <row r="65">
@@ -2771,13 +2839,13 @@
         </is>
       </c>
       <c r="E65" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.999990138723507e-05</v>
+      </c>
+      <c r="G65" t="n">
         <v>3245016</v>
-      </c>
-      <c r="F65" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1.999990138723507e-05</v>
       </c>
     </row>
     <row r="66">
@@ -2800,13 +2868,13 @@
         </is>
       </c>
       <c r="E66" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F66" t="n">
+        <v>6.097652173813e-07</v>
+      </c>
+      <c r="G66" t="n">
         <v>869187</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G66" t="n">
-        <v>6.097652173813e-07</v>
       </c>
     </row>
     <row r="67">
@@ -2829,13 +2897,13 @@
         </is>
       </c>
       <c r="E67" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.017905193196389</v>
+      </c>
+      <c r="G67" t="n">
         <v>10.08934827</v>
-      </c>
-      <c r="F67" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1.017905193196389</v>
       </c>
     </row>
     <row r="68">
@@ -2858,13 +2926,13 @@
         </is>
       </c>
       <c r="E68" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.50582843005091e-05</v>
+      </c>
+      <c r="G68" t="n">
         <v>63053</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2.50582843005091e-05</v>
       </c>
     </row>
     <row r="69">
@@ -2887,13 +2955,13 @@
         </is>
       </c>
       <c r="E69" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.02999223086363483</v>
+      </c>
+      <c r="G69" t="n">
         <v>633.8308105999999</v>
-      </c>
-      <c r="F69" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.02999223086363483</v>
       </c>
     </row>
     <row r="70">
@@ -2916,13 +2984,13 @@
         </is>
       </c>
       <c r="E70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G70" t="n">
         <v>28</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.05</v>
       </c>
     </row>
     <row r="71">
@@ -2945,13 +3013,13 @@
         </is>
       </c>
       <c r="E71" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5.108385884044267</v>
+      </c>
+      <c r="G71" t="n">
         <v>1.68154877</v>
-      </c>
-      <c r="F71" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="G71" t="n">
-        <v>5.108385884044267</v>
       </c>
     </row>
     <row r="72">
@@ -2974,13 +3042,13 @@
         </is>
       </c>
       <c r="E72" t="n">
+        <v>57.08</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4.999640004898036e-06</v>
+      </c>
+      <c r="G72" t="n">
         <v>11416822</v>
-      </c>
-      <c r="F72" t="n">
-        <v>57.08</v>
-      </c>
-      <c r="G72" t="n">
-        <v>4.999640004898036e-06</v>
       </c>
     </row>
     <row r="73">
@@ -3003,13 +3071,13 @@
         </is>
       </c>
       <c r="E73" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.4000003040002311</v>
+      </c>
+      <c r="G73" t="n">
         <v>3.99999696</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.4000003040002311</v>
       </c>
     </row>
     <row r="74">
@@ -3032,13 +3100,13 @@
         </is>
       </c>
       <c r="E74" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.1000335965334798</v>
+      </c>
+      <c r="G74" t="n">
         <v>7.99731318</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.1000335965334798</v>
       </c>
     </row>
     <row r="75">
@@ -3061,13 +3129,13 @@
         </is>
       </c>
       <c r="E75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.3001569612464985</v>
+      </c>
+      <c r="G75" t="n">
         <v>3.59811745</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.3001569612464985</v>
       </c>
     </row>
     <row r="76">
@@ -3090,13 +3158,13 @@
         </is>
       </c>
       <c r="E76" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.000824855650261e-05</v>
+      </c>
+      <c r="G76" t="n">
         <v>90925</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1.000824855650261e-05</v>
       </c>
     </row>
     <row r="77">
@@ -3119,13 +3187,13 @@
         </is>
       </c>
       <c r="E77" t="n">
+        <v>50.22</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="G77" t="n">
         <v>2232</v>
-      </c>
-      <c r="F77" t="n">
-        <v>50.22</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.0225</v>
       </c>
     </row>
     <row r="78">
@@ -3148,13 +3216,13 @@
         </is>
       </c>
       <c r="E78" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.02741626913761824</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.36474693</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.02741626913761824</v>
       </c>
     </row>
     <row r="79">
@@ -3177,13 +3245,13 @@
         </is>
       </c>
       <c r="E79" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.07120231082827655</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.14044488</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.07120231082827655</v>
       </c>
     </row>
     <row r="80">
@@ -3206,13 +3274,13 @@
         </is>
       </c>
       <c r="E80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4.627487274409996e-06</v>
+      </c>
+      <c r="G80" t="n">
         <v>2161</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G80" t="n">
-        <v>4.627487274409996e-06</v>
       </c>
     </row>
     <row r="81">
@@ -3235,13 +3303,13 @@
         </is>
       </c>
       <c r="E81" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.003709360680777e-05</v>
+      </c>
+      <c r="G81" t="n">
         <v>91660</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1.003709360680777e-05</v>
       </c>
     </row>
     <row r="82">
@@ -3264,13 +3332,13 @@
         </is>
       </c>
       <c r="E82" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9.998666844420743e-07</v>
+      </c>
+      <c r="G82" t="n">
         <v>60008</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G82" t="n">
-        <v>9.998666844420743e-07</v>
       </c>
     </row>
     <row r="83">
@@ -3293,13 +3361,13 @@
         </is>
       </c>
       <c r="E83" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.09510196199730561</v>
+      </c>
+      <c r="G83" t="n">
         <v>2.41845694</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.09510196199730561</v>
       </c>
     </row>
     <row r="84">
@@ -3322,13 +3390,13 @@
         </is>
       </c>
       <c r="E84" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.09998610625000286</v>
+      </c>
+      <c r="G84" t="n">
         <v>267.43715705</v>
-      </c>
-      <c r="F84" t="n">
-        <v>26.74</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.09998610625000286</v>
       </c>
     </row>
     <row r="85">
@@ -3351,13 +3419,13 @@
         </is>
       </c>
       <c r="E85" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.2999773542157282</v>
+      </c>
+      <c r="G85" t="n">
         <v>135.27687817</v>
-      </c>
-      <c r="F85" t="n">
-        <v>40.58</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.2999773542157282</v>
       </c>
     </row>
     <row r="86">
@@ -3380,13 +3448,13 @@
         </is>
       </c>
       <c r="E86" t="n">
+        <v>51.11</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.00006202693456e-05</v>
+      </c>
+      <c r="G86" t="n">
         <v>5110683</v>
-      </c>
-      <c r="F86" t="n">
-        <v>51.11</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1.00006202693456e-05</v>
       </c>
     </row>
     <row r="87">
@@ -3409,13 +3477,13 @@
         </is>
       </c>
       <c r="E87" t="n">
+        <v>224.09</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.003000066938884798</v>
+      </c>
+      <c r="G87" t="n">
         <v>74695</v>
-      </c>
-      <c r="F87" t="n">
-        <v>224.09</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.003000066938884798</v>
       </c>
     </row>
     <row r="88">
@@ -3438,13 +3506,13 @@
         </is>
       </c>
       <c r="E88" t="n">
+        <v>298.9</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.000003181676232e-06</v>
+      </c>
+      <c r="G88" t="n">
         <v>298899049</v>
-      </c>
-      <c r="F88" t="n">
-        <v>298.9</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1.000003181676232e-06</v>
       </c>
     </row>
     <row r="89">
@@ -3467,13 +3535,13 @@
         </is>
       </c>
       <c r="E89" t="n">
+        <v>210.81</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.5000073192333682</v>
+      </c>
+      <c r="G89" t="n">
         <v>421.61382822</v>
-      </c>
-      <c r="F89" t="n">
-        <v>210.81</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.5000073192333682</v>
       </c>
     </row>
     <row r="90">
@@ -3496,13 +3564,13 @@
         </is>
       </c>
       <c r="E90" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F90" t="n">
+        <v>5.006996582307583e-08</v>
+      </c>
+      <c r="G90" t="n">
         <v>28759756</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G90" t="n">
-        <v>5.006996582307583e-08</v>
       </c>
     </row>
     <row r="91">
@@ -3525,13 +3593,13 @@
         </is>
       </c>
       <c r="E91" t="n">
+        <v>429.77</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.02499996673262798</v>
+      </c>
+      <c r="G91" t="n">
         <v>17190.82287574</v>
-      </c>
-      <c r="F91" t="n">
-        <v>429.77</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.02499996673262798</v>
       </c>
     </row>
     <row r="92">
@@ -3554,13 +3622,13 @@
         </is>
       </c>
       <c r="E92" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.06700000107200002</v>
+      </c>
+      <c r="G92" t="n">
         <v>249.999996</v>
-      </c>
-      <c r="F92" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.06700000107200002</v>
       </c>
     </row>
     <row r="93">
@@ -3583,13 +3651,13 @@
         </is>
       </c>
       <c r="E93" t="n">
+        <v>267.84</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G93" t="n">
         <v>7440</v>
-      </c>
-      <c r="F93" t="n">
-        <v>267.84</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.036</v>
       </c>
     </row>
     <row r="94">
@@ -3612,13 +3680,13 @@
         </is>
       </c>
       <c r="E94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.004545454545454545</v>
+      </c>
+      <c r="G94" t="n">
         <v>4.4</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.004545454545454545</v>
       </c>
     </row>
     <row r="95">
@@ -3641,13 +3709,13 @@
         </is>
       </c>
       <c r="E95" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.600022401433692e-05</v>
+      </c>
+      <c r="G95" t="n">
         <v>5356800</v>
-      </c>
-      <c r="F95" t="n">
-        <v>85.70999999999999</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1.600022401433692e-05</v>
       </c>
     </row>
     <row r="96">
@@ -3670,13 +3738,13 @@
         </is>
       </c>
       <c r="E96" t="n">
+        <v>271.19</v>
+      </c>
+      <c r="F96" t="n">
+        <v>8.100059737156511e-05</v>
+      </c>
+      <c r="G96" t="n">
         <v>3348000</v>
-      </c>
-      <c r="F96" t="n">
-        <v>271.19</v>
-      </c>
-      <c r="G96" t="n">
-        <v>8.100059737156511e-05</v>
       </c>
     </row>
     <row r="97">
@@ -3699,13 +3767,13 @@
         </is>
       </c>
       <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.9999970400087616</v>
+      </c>
+      <c r="G97" t="n">
         <v>1.00000296</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.9999970400087616</v>
       </c>
     </row>
     <row r="98">
@@ -3728,13 +3796,13 @@
         </is>
       </c>
       <c r="E98" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.01700268817204301</v>
+      </c>
+      <c r="G98" t="n">
         <v>744</v>
-      </c>
-      <c r="F98" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.01700268817204301</v>
       </c>
     </row>
     <row r="99">
@@ -3757,13 +3825,13 @@
         </is>
       </c>
       <c r="E99" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.008013506941201308</v>
+      </c>
+      <c r="G99" t="n">
         <v>229.61232997</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.008013506941201308</v>
       </c>
     </row>
     <row r="100">
@@ -3786,13 +3854,13 @@
         </is>
       </c>
       <c r="E100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F100" t="n">
+        <v>9.825112988799372e-07</v>
+      </c>
+      <c r="G100" t="n">
         <v>10178</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G100" t="n">
-        <v>9.825112988799372e-07</v>
       </c>
     </row>
     <row r="101">
@@ -3815,13 +3883,13 @@
         </is>
       </c>
       <c r="E101" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.02250032421216444</v>
+      </c>
+      <c r="G101" t="n">
         <v>7711</v>
-      </c>
-      <c r="F101" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.02250032421216444</v>
       </c>
     </row>
     <row r="102">
@@ -3844,13 +3912,13 @@
         </is>
       </c>
       <c r="E102" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G102" t="n">
         <v>744</v>
-      </c>
-      <c r="F102" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.025</v>
       </c>
     </row>
     <row r="103">
@@ -3873,13 +3941,13 @@
         </is>
       </c>
       <c r="E103" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.001470248922801e-05</v>
+      </c>
+      <c r="G103" t="n">
         <v>186363</v>
-      </c>
-      <c r="F103" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="G103" t="n">
-        <v>2.001470248922801e-05</v>
       </c>
     </row>
     <row r="104">
@@ -3902,13 +3970,13 @@
         </is>
       </c>
       <c r="E104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.1000000016</v>
+      </c>
+      <c r="G104" t="n">
         <v>4.99999992</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.1000000016</v>
       </c>
     </row>
     <row r="105">
@@ -3931,13 +3999,13 @@
         </is>
       </c>
       <c r="E105" t="n">
+        <v>767.6900000000001</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0001299992887793082</v>
+      </c>
+      <c r="G105" t="n">
         <v>5905340</v>
-      </c>
-      <c r="F105" t="n">
-        <v>767.6900000000001</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.0001299992887793082</v>
       </c>
     </row>
     <row r="106">
@@ -3960,13 +4028,13 @@
         </is>
       </c>
       <c r="E106" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.02296931802745756</v>
+      </c>
+      <c r="G106" t="n">
         <v>132.574848</v>
-      </c>
-      <c r="F106" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.02296931802745756</v>
       </c>
     </row>
     <row r="107">
@@ -3989,13 +4057,13 @@
         </is>
       </c>
       <c r="E107" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.93914948903411e-07</v>
+      </c>
+      <c r="G107" t="n">
         <v>464121</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1.93914948903411e-07</v>
       </c>
     </row>
     <row r="108">
@@ -4018,13 +4086,13 @@
         </is>
       </c>
       <c r="E108" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="F108" t="n">
+        <v>4.00031449169307e-07</v>
+      </c>
+      <c r="G108" t="n">
         <v>104816759</v>
-      </c>
-      <c r="F108" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="G108" t="n">
-        <v>4.00031449169307e-07</v>
       </c>
     </row>
     <row r="109">
@@ -4047,13 +4115,13 @@
         </is>
       </c>
       <c r="E109" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G109" t="n">
         <v>744</v>
-      </c>
-      <c r="F109" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.015</v>
       </c>
     </row>
     <row r="110">
@@ -4076,13 +4144,13 @@
         </is>
       </c>
       <c r="E110" t="n">
+        <v>1016.77</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.09999966929759138</v>
+      </c>
+      <c r="G110" t="n">
         <v>10167.73362494</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1016.77</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.09999966929759138</v>
       </c>
     </row>
     <row r="111">
@@ -4105,13 +4173,13 @@
         </is>
       </c>
       <c r="E111" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.02999880105661157</v>
+      </c>
+      <c r="G111" t="n">
         <v>962.37179431</v>
-      </c>
-      <c r="F111" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.02999880105661157</v>
       </c>
     </row>
     <row r="112">
@@ -4134,13 +4202,13 @@
         </is>
       </c>
       <c r="E112" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.09582893653202816</v>
+      </c>
+      <c r="G112" t="n">
         <v>0.83482091</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.09582893653202816</v>
       </c>
     </row>
     <row r="113">
@@ -4163,13 +4231,13 @@
         </is>
       </c>
       <c r="E113" t="n">
+        <v>7622.59</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.2499999975192979</v>
+      </c>
+      <c r="G113" t="n">
         <v>30490.36030255</v>
-      </c>
-      <c r="F113" t="n">
-        <v>7622.59</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.2499999975192979</v>
       </c>
     </row>
     <row r="114">
@@ -4192,13 +4260,13 @@
         </is>
       </c>
       <c r="E114" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G114" t="n">
         <v>2910</v>
-      </c>
-      <c r="F114" t="n">
-        <v>145.5</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.05</v>
       </c>
     </row>
     <row r="115">
@@ -4221,13 +4289,13 @@
         </is>
       </c>
       <c r="E115" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.5000126959927127</v>
+      </c>
+      <c r="G115" t="n">
         <v>59.81848109</v>
-      </c>
-      <c r="F115" t="n">
-        <v>29.91</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.5000126959927127</v>
       </c>
     </row>
     <row r="116">
@@ -4250,13 +4318,13 @@
         </is>
       </c>
       <c r="E116" t="n">
+        <v>44.64</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G116" t="n">
         <v>4464</v>
-      </c>
-      <c r="F116" t="n">
-        <v>44.64</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.01</v>
       </c>
     </row>
     <row r="117">
@@ -4279,13 +4347,13 @@
         </is>
       </c>
       <c r="E117" t="n">
+        <v>1417.41</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0006499990369773195</v>
+      </c>
+      <c r="G117" t="n">
         <v>2180634</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1417.41</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.0006499990369773195</v>
       </c>
     </row>
     <row r="118">
@@ -4308,13 +4376,13 @@
         </is>
       </c>
       <c r="E118" t="n">
+        <v>76.09</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5.072660941323352</v>
+      </c>
+      <c r="G118" t="n">
         <v>15.00001693</v>
-      </c>
-      <c r="F118" t="n">
-        <v>76.09</v>
-      </c>
-      <c r="G118" t="n">
-        <v>5.072660941323352</v>
       </c>
     </row>
     <row r="119">
@@ -4337,13 +4405,13 @@
         </is>
       </c>
       <c r="E119" t="n">
+        <v>44.97</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0006499306278182448</v>
+      </c>
+      <c r="G119" t="n">
         <v>69192</v>
-      </c>
-      <c r="F119" t="n">
-        <v>44.97</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.0006499306278182448</v>
       </c>
     </row>
     <row r="120">
@@ -4366,13 +4434,13 @@
         </is>
       </c>
       <c r="E120" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.319892428767056e-06</v>
+      </c>
+      <c r="G120" t="n">
         <v>60611</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1.319892428767056e-06</v>
       </c>
     </row>
     <row r="121">
@@ -4395,13 +4463,13 @@
         </is>
       </c>
       <c r="E121" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.99975765073739</v>
+      </c>
+      <c r="G121" t="n">
         <v>15.98387368</v>
-      </c>
-      <c r="F121" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.99975765073739</v>
       </c>
     </row>
     <row r="122">
@@ -4424,13 +4492,13 @@
         </is>
       </c>
       <c r="E122" t="n">
+        <v>61.29</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.999982378958126e-06</v>
+      </c>
+      <c r="G122" t="n">
         <v>20430120</v>
-      </c>
-      <c r="F122" t="n">
-        <v>61.29</v>
-      </c>
-      <c r="G122" t="n">
-        <v>2.999982378958126e-06</v>
       </c>
     </row>
     <row r="123">
@@ -4453,13 +4521,13 @@
         </is>
       </c>
       <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.9999970400087616</v>
+      </c>
+      <c r="G123" t="n">
         <v>1.00000296</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.9999970400087616</v>
       </c>
     </row>
     <row r="124">
@@ -4482,13 +4550,13 @@
         </is>
       </c>
       <c r="E124" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.9997936900420409</v>
+      </c>
+      <c r="G124" t="n">
         <v>17.1935472</v>
-      </c>
-      <c r="F124" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.9997936900420409</v>
       </c>
     </row>
     <row r="125">
@@ -4511,17 +4579,17 @@
         </is>
       </c>
       <c r="E125" t="n">
+        <v>137.78</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3.000051713767021e-06</v>
+      </c>
+      <c r="G125" t="n">
         <v>45925875</v>
       </c>
-      <c r="F125" t="n">
-        <v>137.78</v>
-      </c>
-      <c r="G125" t="n">
-        <v>3.000051713767021e-06</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4557,23 +4625,23 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>TotalCost</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>BlendedRate</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>UsageQuantity</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>TotalCost</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>BlendedRate</t>
         </is>
       </c>
     </row>
     <row r="2"/>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4609,17 +4677,17 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>TotalCost</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>BlendedRate</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>UsageQuantity</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>TotalCost</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>BlendedRate</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -4684,13 +4752,13 @@
         </is>
       </c>
       <c r="E3" t="n">
+        <v>71.42</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.09599462365591398</v>
+      </c>
+      <c r="G3" t="n">
         <v>744</v>
-      </c>
-      <c r="F3" t="n">
-        <v>71.42</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.09599462365591398</v>
       </c>
       <c r="H3" t="n">
         <v>744</v>
@@ -4741,13 +4809,13 @@
         </is>
       </c>
       <c r="E4" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0463978494623656</v>
+      </c>
+      <c r="G4" t="n">
         <v>1488</v>
-      </c>
-      <c r="F4" t="n">
-        <v>69.04000000000001</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0463978494623656</v>
       </c>
       <c r="H4" t="n">
         <v>1488</v>
@@ -4763,10 +4831,10 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.033503</v>
+        <v>0.03774</v>
       </c>
       <c r="L4" t="n">
-        <v>49.852464</v>
+        <v>56.15712000000001</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -4798,13 +4866,13 @@
         </is>
       </c>
       <c r="E5" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01159915198034446</v>
+      </c>
+      <c r="G5" t="n">
         <v>3784.759444</v>
-      </c>
-      <c r="F5" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.01159915198034446</v>
       </c>
       <c r="H5" t="n">
         <v>3784.759444</v>
@@ -4820,10 +4888,10 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.008376</v>
+        <v>0.009429999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>31.701145102944</v>
+        <v>35.69028155691999</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -4855,13 +4923,13 @@
         </is>
       </c>
       <c r="E6" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0134005376344086</v>
+      </c>
+      <c r="G6" t="n">
         <v>744</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0134005376344086</v>
       </c>
       <c r="H6" t="n">
         <v>744</v>
@@ -4877,10 +4945,10 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.008376</v>
+        <v>0.01079</v>
       </c>
       <c r="L6" t="n">
-        <v>6.231744</v>
+        <v>8.027759999999999</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -4912,13 +4980,13 @@
         </is>
       </c>
       <c r="E7" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0115994623655914</v>
+      </c>
+      <c r="G7" t="n">
         <v>1488</v>
-      </c>
-      <c r="F7" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0115994623655914</v>
       </c>
       <c r="H7" t="n">
         <v>1488</v>
@@ -4934,10 +5002,10 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.008376</v>
+        <v>0.00838</v>
       </c>
       <c r="L7" t="n">
-        <v>12.463488</v>
+        <v>12.46944</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -4969,13 +5037,13 @@
         </is>
       </c>
       <c r="E8" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G8" t="n">
         <v>744</v>
-      </c>
-      <c r="F8" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.025</v>
       </c>
       <c r="H8" t="n">
         <v>744</v>
@@ -4991,10 +5059,10 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.008376</v>
+        <v>0.00838</v>
       </c>
       <c r="L8" t="n">
-        <v>6.231744</v>
+        <v>6.23472</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -5026,13 +5094,13 @@
         </is>
       </c>
       <c r="E9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01992254115997004</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.5019439999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.01992254115997004</v>
       </c>
       <c r="H9" t="n">
         <v>0.5019439999999999</v>
@@ -5083,13 +5151,13 @@
         </is>
       </c>
       <c r="E10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4120562154559539</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.728056</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.4120562154559539</v>
       </c>
       <c r="H10" t="n">
         <v>0.728056</v>
@@ -5140,13 +5208,13 @@
         </is>
       </c>
       <c r="E11" t="n">
+        <v>172.24</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1049999543856155</v>
+      </c>
+      <c r="G11" t="n">
         <v>1640.381665</v>
-      </c>
-      <c r="F11" t="n">
-        <v>172.24</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.1049999543856155</v>
       </c>
       <c r="H11" t="n">
         <v>1640.381665</v>
@@ -5197,13 +5265,13 @@
         </is>
       </c>
       <c r="E12" t="n">
+        <v>2879.55</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3400004565266674</v>
+      </c>
+      <c r="G12" t="n">
         <v>8469.253334000001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2879.55</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.3400004565266674</v>
       </c>
       <c r="H12" t="n">
         <v>8469.253334000001</v>
@@ -5254,13 +5322,13 @@
         </is>
       </c>
       <c r="E13" t="n">
+        <v>1011.63</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.6799990142860982</v>
+      </c>
+      <c r="G13" t="n">
         <v>1487.693333</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1011.63</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.6799990142860982</v>
       </c>
       <c r="H13" t="n">
         <v>1487.693333</v>
@@ -5311,13 +5379,13 @@
         </is>
       </c>
       <c r="E14" t="n">
+        <v>338.88</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.08499927572405101</v>
+      </c>
+      <c r="G14" t="n">
         <v>3986.857501</v>
-      </c>
-      <c r="F14" t="n">
-        <v>338.88</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.08499927572405101</v>
       </c>
       <c r="H14" t="n">
         <v>3986.857501</v>
@@ -5368,13 +5436,13 @@
         </is>
       </c>
       <c r="E15" t="n">
+        <v>632.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G15" t="n">
         <v>3720</v>
-      </c>
-      <c r="F15" t="n">
-        <v>632.4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.17</v>
       </c>
       <c r="H15" t="n">
         <v>3720</v>
@@ -5425,13 +5493,13 @@
         </is>
       </c>
       <c r="E16" t="n">
+        <v>49.85</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.06700268817204301</v>
+      </c>
+      <c r="G16" t="n">
         <v>744</v>
-      </c>
-      <c r="F16" t="n">
-        <v>49.85</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.06700268817204301</v>
       </c>
       <c r="H16" t="n">
         <v>744</v>
@@ -5482,13 +5550,13 @@
         </is>
       </c>
       <c r="E17" t="n">
+        <v>142.85</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.192002688172043</v>
+      </c>
+      <c r="G17" t="n">
         <v>744</v>
-      </c>
-      <c r="F17" t="n">
-        <v>142.85</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.192002688172043</v>
       </c>
       <c r="H17" t="n">
         <v>744</v>
@@ -5539,13 +5607,13 @@
         </is>
       </c>
       <c r="E18" t="n">
+        <v>1744.96</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.09599989291073746</v>
+      </c>
+      <c r="G18" t="n">
         <v>18176.686943</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1744.96</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.09599989291073746</v>
       </c>
       <c r="H18" t="n">
         <v>18176.686943</v>
@@ -5596,13 +5664,13 @@
         </is>
       </c>
       <c r="E19" t="n">
+        <v>428.54</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1919982078853047</v>
+      </c>
+      <c r="G19" t="n">
         <v>2232</v>
-      </c>
-      <c r="F19" t="n">
-        <v>428.54</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.1919982078853047</v>
       </c>
       <c r="H19" t="n">
         <v>2232</v>
@@ -5653,13 +5721,13 @@
         </is>
       </c>
       <c r="E20" t="n">
+        <v>1627.74</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2660007113815405</v>
+      </c>
+      <c r="G20" t="n">
         <v>6119.306943</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1627.74</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.2660007113815405</v>
       </c>
       <c r="H20" t="n">
         <v>6119.306943</v>
@@ -5710,13 +5778,13 @@
         </is>
       </c>
       <c r="E21" t="n">
+        <v>1124.93</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5040008960573477</v>
+      </c>
+      <c r="G21" t="n">
         <v>2232</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1124.93</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.5040008960573477</v>
       </c>
       <c r="H21" t="n">
         <v>2232</v>
@@ -5767,13 +5835,13 @@
         </is>
       </c>
       <c r="E22" t="n">
+        <v>843.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1260005973715651</v>
+      </c>
+      <c r="G22" t="n">
         <v>6696</v>
-      </c>
-      <c r="F22" t="n">
-        <v>843.7</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.1260005973715651</v>
       </c>
       <c r="H22" t="n">
         <v>6695.999999999999</v>
@@ -5824,13 +5892,13 @@
         </is>
       </c>
       <c r="E23" t="n">
+        <v>162.19</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.217997311827957</v>
+      </c>
+      <c r="G23" t="n">
         <v>744</v>
-      </c>
-      <c r="F23" t="n">
-        <v>162.19</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.217997311827957</v>
       </c>
       <c r="H23" t="n">
         <v>744</v>
@@ -5881,13 +5949,13 @@
         </is>
       </c>
       <c r="E24" t="n">
+        <v>846.86</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.09279963435694842</v>
+      </c>
+      <c r="G24" t="n">
         <v>9125.682508</v>
-      </c>
-      <c r="F24" t="n">
-        <v>846.86</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.09279963435694842</v>
       </c>
       <c r="H24" t="n">
         <v>9125.682508</v>
@@ -5938,13 +6006,13 @@
         </is>
       </c>
       <c r="E25" t="n">
+        <v>92.56</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.04640056495016277</v>
+      </c>
+      <c r="G25" t="n">
         <v>1994.80329818</v>
-      </c>
-      <c r="F25" t="n">
-        <v>92.56</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.04640056495016277</v>
       </c>
       <c r="H25" t="n">
         <v>1994.80329818</v>
@@ -5960,10 +6028,10 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0.033503</v>
+        <v>0.03351</v>
       </c>
       <c r="L25" t="n">
-        <v>66.83189489892453</v>
+        <v>66.8458585220118</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -5995,13 +6063,13 @@
         </is>
       </c>
       <c r="E26" t="n">
+        <v>52.73</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.01160078954854865</v>
+      </c>
+      <c r="G26" t="n">
         <v>4545.380276</v>
-      </c>
-      <c r="F26" t="n">
-        <v>52.73</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.01160078954854865</v>
       </c>
       <c r="H26" t="n">
         <v>4545.380276</v>
@@ -6017,10 +6085,10 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0.008376</v>
+        <v>0.00838</v>
       </c>
       <c r="L26" t="n">
-        <v>38.072105191776</v>
+        <v>38.09028671288</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -6052,13 +6120,13 @@
         </is>
       </c>
       <c r="E27" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.01619623655913979</v>
+      </c>
+      <c r="G27" t="n">
         <v>744</v>
-      </c>
-      <c r="F27" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.01619623655913979</v>
       </c>
       <c r="H27" t="n">
         <v>744</v>
@@ -6074,10 +6142,10 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0.008376</v>
+        <v>0.00838</v>
       </c>
       <c r="L27" t="n">
-        <v>6.231744</v>
+        <v>6.23472</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -6109,13 +6177,13 @@
         </is>
       </c>
       <c r="E28" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.08319892473118279</v>
+      </c>
+      <c r="G28" t="n">
         <v>744</v>
-      </c>
-      <c r="F28" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.08319892473118279</v>
       </c>
       <c r="H28" t="n">
         <v>744</v>
@@ -6166,13 +6234,13 @@
         </is>
       </c>
       <c r="E29" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.005198952942098222</v>
+      </c>
+      <c r="G29" t="n">
         <v>534.723055</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.005198952942098222</v>
       </c>
       <c r="H29" t="n">
         <v>534.723055</v>
@@ -6223,13 +6291,13 @@
         </is>
       </c>
       <c r="E30" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.02080645161290322</v>
+      </c>
+      <c r="G30" t="n">
         <v>744</v>
-      </c>
-      <c r="F30" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.02080645161290322</v>
       </c>
       <c r="H30" t="n">
         <v>744</v>
@@ -6245,10 +6313,10 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0.016751</v>
+        <v>0.01675</v>
       </c>
       <c r="L30" t="n">
-        <v>12.462744</v>
+        <v>12.462</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -6280,13 +6348,13 @@
         </is>
       </c>
       <c r="E31" t="n">
+        <v>56.03</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1664146211345571</v>
+      </c>
+      <c r="G31" t="n">
         <v>336.689166</v>
-      </c>
-      <c r="F31" t="n">
-        <v>56.03</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.1664146211345571</v>
       </c>
       <c r="H31" t="n">
         <v>336.689166</v>
@@ -6318,7 +6386,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6354,17 +6422,17 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>TotalCost</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>BlendedRate</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>UsageQuantity</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>TotalCost</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>BlendedRate</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -6429,13 +6497,13 @@
         </is>
       </c>
       <c r="E3" t="n">
+        <v>251.62</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1690994623655914</v>
+      </c>
+      <c r="G3" t="n">
         <v>1488</v>
-      </c>
-      <c r="F3" t="n">
-        <v>251.62</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1690994623655914</v>
       </c>
       <c r="H3" t="n">
         <v>1488</v>
@@ -6486,13 +6554,13 @@
         </is>
       </c>
       <c r="E4" t="n">
+        <v>1185.18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1769982078853047</v>
+      </c>
+      <c r="G4" t="n">
         <v>6696</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1185.18</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1769982078853047</v>
       </c>
       <c r="H4" t="n">
         <v>6696.000000000001</v>
@@ -6543,13 +6611,13 @@
         </is>
       </c>
       <c r="E5" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0418010752688172</v>
+      </c>
+      <c r="G5" t="n">
         <v>2976</v>
-      </c>
-      <c r="F5" t="n">
-        <v>124.4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0418010752688172</v>
       </c>
       <c r="H5" t="n">
         <v>2976</v>
@@ -6600,13 +6668,13 @@
         </is>
       </c>
       <c r="E6" t="n">
+        <v>314.53</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.08455085125448028</v>
+      </c>
+      <c r="G6" t="n">
         <v>3720</v>
-      </c>
-      <c r="F6" t="n">
-        <v>314.53</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.08455085125448028</v>
       </c>
       <c r="H6" t="n">
         <v>3720.009856001695</v>
@@ -6657,13 +6725,13 @@
         </is>
       </c>
       <c r="E7" t="n">
+        <v>488.54</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1641599462365591</v>
+      </c>
+      <c r="G7" t="n">
         <v>2976</v>
-      </c>
-      <c r="F7" t="n">
-        <v>488.54</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1641599462365591</v>
       </c>
       <c r="H7" t="n">
         <v>2976</v>
@@ -6714,13 +6782,13 @@
         </is>
       </c>
       <c r="E8" t="n">
+        <v>977.08</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3283198924731183</v>
+      </c>
+      <c r="G8" t="n">
         <v>2976</v>
-      </c>
-      <c r="F8" t="n">
-        <v>977.08</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.3283198924731183</v>
       </c>
       <c r="H8" t="n">
         <v>2976</v>
@@ -6771,13 +6839,13 @@
         </is>
       </c>
       <c r="E9" t="n">
+        <v>641.21</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.04104015190305513</v>
+      </c>
+      <c r="G9" t="n">
         <v>15624</v>
-      </c>
-      <c r="F9" t="n">
-        <v>641.21</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.04104015190305513</v>
       </c>
       <c r="H9" t="n">
         <v>15623.96751149127</v>
@@ -6828,13 +6896,13 @@
         </is>
       </c>
       <c r="E10" t="n">
+        <v>376.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.02298959577857428</v>
+      </c>
+      <c r="G10" t="n">
         <v>16368</v>
-      </c>
-      <c r="F10" t="n">
-        <v>376.3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.02298959577857428</v>
       </c>
       <c r="H10" t="n">
         <v>16368.27387590269</v>
@@ -6850,10 +6918,10 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.02111</v>
+        <v>0.03351</v>
       </c>
       <c r="L10" t="n">
-        <v>345.5342615203057</v>
+        <v>548.500857581499</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -6885,13 +6953,13 @@
         </is>
       </c>
       <c r="E11" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01149417562724014</v>
+      </c>
+      <c r="G11" t="n">
         <v>2976</v>
-      </c>
-      <c r="F11" t="n">
-        <v>34.21</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.01149417562724014</v>
       </c>
       <c r="H11" t="n">
         <v>2976.290001948938</v>
@@ -6907,10 +6975,10 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.01055</v>
+        <v>0.01675</v>
       </c>
       <c r="L11" t="n">
-        <v>31.39985952056129</v>
+        <v>49.85285753264471</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -6923,7 +6991,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6959,17 +7027,17 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>TotalCost</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>BlendedRate</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>UsageQuantity</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>TotalCost</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>BlendedRate</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -7004,13 +7072,13 @@
         </is>
       </c>
       <c r="E3" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.04998438526930907</v>
+      </c>
+      <c r="G3" t="n">
         <v>102.23192648</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.04998438526930907</v>
       </c>
       <c r="H3" t="n">
         <v>0.029</v>
@@ -7039,13 +7107,13 @@
         </is>
       </c>
       <c r="E4" t="n">
+        <v>128.87</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1000002341077879</v>
+      </c>
+      <c r="G4" t="n">
         <v>1288.69698306</v>
-      </c>
-      <c r="F4" t="n">
-        <v>128.87</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1000002341077879</v>
       </c>
       <c r="H4" t="n">
         <v>0.11</v>
@@ -7074,13 +7142,13 @@
         </is>
       </c>
       <c r="E5" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04999051655691404</v>
+      </c>
+      <c r="G5" t="n">
         <v>235.44465652</v>
-      </c>
-      <c r="F5" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.04999051655691404</v>
       </c>
       <c r="H5" t="n">
         <v>0.026</v>
@@ -7109,13 +7177,13 @@
         </is>
       </c>
       <c r="E6" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1099999813000032</v>
+      </c>
+      <c r="G6" t="n">
         <v>8.000001360000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1099999813000032</v>
       </c>
       <c r="H6" t="n">
         <v>0.1</v>
@@ -7144,13 +7212,13 @@
         </is>
       </c>
       <c r="E7" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1187499798125034</v>
+      </c>
+      <c r="G7" t="n">
         <v>8.000001360000001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1187499798125034</v>
       </c>
       <c r="H7" t="n">
         <v>0.12</v>
@@ -7179,13 +7247,13 @@
         </is>
       </c>
       <c r="E8" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06773724580855281</v>
+      </c>
+      <c r="G8" t="n">
         <v>2.65732682</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06773724580855281</v>
       </c>
       <c r="H8" t="n">
         <v>0.039</v>
@@ -7214,13 +7282,13 @@
         </is>
       </c>
       <c r="E9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.09999998300000289</v>
+      </c>
+      <c r="G9" t="n">
         <v>16.00000272</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.09999998300000289</v>
       </c>
       <c r="H9" t="n">
         <v>0.1</v>
@@ -7249,13 +7317,13 @@
         </is>
       </c>
       <c r="E10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.05494245034724227</v>
+      </c>
+      <c r="G10" t="n">
         <v>30.0314236</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.05494245034724227</v>
       </c>
       <c r="H10" t="n">
         <v>0.026</v>
@@ -7284,13 +7352,13 @@
         </is>
       </c>
       <c r="E11" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0799999864000023</v>
+      </c>
+      <c r="G11" t="n">
         <v>8.000001360000001</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0799999864000023</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
@@ -7319,13 +7387,13 @@
         </is>
       </c>
       <c r="E12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1199999796000035</v>
+      </c>
+      <c r="G12" t="n">
         <v>8.000001360000001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.1199999796000035</v>
       </c>
       <c r="H12" t="n">
         <v>0.1</v>
@@ -7354,13 +7422,13 @@
         </is>
       </c>
       <c r="E13" t="n">
+        <v>13269.88</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.05000001067433015</v>
+      </c>
+      <c r="G13" t="n">
         <v>265397.54334118</v>
-      </c>
-      <c r="F13" t="n">
-        <v>13269.88</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.05000001067433015</v>
       </c>
       <c r="H13" t="n">
         <v>0.026</v>
@@ -7389,13 +7457,13 @@
         </is>
       </c>
       <c r="E14" t="n">
+        <v>41.99</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04999543927529435</v>
+      </c>
+      <c r="G14" t="n">
         <v>839.87660892</v>
-      </c>
-      <c r="F14" t="n">
-        <v>41.99</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.04999543927529435</v>
       </c>
       <c r="H14" t="n">
         <v>0.04</v>
@@ -7424,13 +7492,13 @@
         </is>
       </c>
       <c r="E15" t="n">
+        <v>5479.57</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1000000399507238</v>
+      </c>
+      <c r="G15" t="n">
         <v>54795.67810873</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5479.57</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.1000000399507238</v>
       </c>
       <c r="H15" t="n">
         <v>0.1</v>
@@ -7440,7 +7508,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -7476,17 +7544,17 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>TotalCost</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>BlendedRate</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>UsageQuantity</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>TotalCost</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>BlendedRate</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -7536,13 +7604,13 @@
         </is>
       </c>
       <c r="E3" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01249952430404021</v>
+      </c>
+      <c r="G3" t="n">
         <v>1365.65197081</v>
-      </c>
-      <c r="F3" t="n">
-        <v>17.07</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.01249952430404021</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -7584,13 +7652,13 @@
         </is>
       </c>
       <c r="E4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.010367246529608e-06</v>
+      </c>
+      <c r="G4" t="n">
         <v>227640</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.010367246529608e-06</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -7632,13 +7700,13 @@
         </is>
       </c>
       <c r="E5" t="n">
+        <v>2225.54</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.000001550186054e-06</v>
+      </c>
+      <c r="G5" t="n">
         <v>445107862</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2225.54</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.000001550186054e-06</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -7680,13 +7748,13 @@
         </is>
       </c>
       <c r="E6" t="n">
+        <v>80.17</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.000063186728448e-07</v>
+      </c>
+      <c r="G6" t="n">
         <v>200421834</v>
-      </c>
-      <c r="F6" t="n">
-        <v>80.17</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.000063186728448e-07</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -7728,13 +7796,13 @@
         </is>
       </c>
       <c r="E7" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.500235149838234e-05</v>
+      </c>
+      <c r="G7" t="n">
         <v>2113546</v>
-      </c>
-      <c r="F7" t="n">
-        <v>116.25</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5.500235149838234e-05</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -7776,13 +7844,13 @@
         </is>
       </c>
       <c r="E8" t="n">
+        <v>190.44</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.999918610198247e-06</v>
+      </c>
+      <c r="G8" t="n">
         <v>19044155</v>
-      </c>
-      <c r="F8" t="n">
-        <v>190.44</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9.999918610198247e-06</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -7824,13 +7892,13 @@
         </is>
       </c>
       <c r="E9" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01000421797470863</v>
+      </c>
+      <c r="G9" t="n">
         <v>353.85074665</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.01000421797470863</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -7872,13 +7940,13 @@
         </is>
       </c>
       <c r="E10" t="n">
+        <v>3853.38</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.02200002796326829</v>
+      </c>
+      <c r="G10" t="n">
         <v>175153.41373355</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3853.38</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.02200002796326829</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -7920,13 +7988,13 @@
         </is>
       </c>
       <c r="E11" t="n">
+        <v>1177.6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G11" t="n">
         <v>51200</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1177.6</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.023</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -7968,13 +8036,13 @@
         </is>
       </c>
       <c r="E12" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.003998139873736499</v>
+      </c>
+      <c r="G12" t="n">
         <v>1895.88164481</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.003998139873736499</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -8016,13 +8084,13 @@
         </is>
       </c>
       <c r="E13" t="n">
+        <v>15469.68</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01249999600360942</v>
+      </c>
+      <c r="G13" t="n">
         <v>1237574.79566658</v>
-      </c>
-      <c r="F13" t="n">
-        <v>15469.68</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.01249999600360942</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -8064,13 +8132,13 @@
         </is>
       </c>
       <c r="E14" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01249677338738634</v>
+      </c>
+      <c r="G14" t="n">
         <v>831.41461223</v>
-      </c>
-      <c r="F14" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.01249677338738634</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -8112,13 +8180,13 @@
         </is>
       </c>
       <c r="E15" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.011059434740002e-06</v>
+      </c>
+      <c r="G15" t="n">
         <v>128578</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.011059434740002e-06</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -8160,13 +8228,13 @@
         </is>
       </c>
       <c r="E16" t="n">
+        <v>5535.01</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.999999900632521e-06</v>
+      </c>
+      <c r="G16" t="n">
         <v>1107002022</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5535.01</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4.999999900632521e-06</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -8208,13 +8276,13 @@
         </is>
       </c>
       <c r="E17" t="n">
+        <v>174.64</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.999999377004219e-07</v>
+      </c>
+      <c r="G17" t="n">
         <v>436600068</v>
-      </c>
-      <c r="F17" t="n">
-        <v>174.64</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.999999377004219e-07</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -8256,13 +8324,13 @@
         </is>
       </c>
       <c r="E18" t="n">
+        <v>403.51</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.000010730952058e-05</v>
+      </c>
+      <c r="G18" t="n">
         <v>40350567</v>
-      </c>
-      <c r="F18" t="n">
-        <v>403.51</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.000010730952058e-05</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -8304,13 +8372,13 @@
         </is>
       </c>
       <c r="E19" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.009991347566115165</v>
+      </c>
+      <c r="G19" t="n">
         <v>246.2130342</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.009991347566115165</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -8352,13 +8420,13 @@
         </is>
       </c>
       <c r="E20" t="n">
+        <v>2034.13</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.02199996274122248</v>
+      </c>
+      <c r="G20" t="n">
         <v>92460.61113496999</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2034.13</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.02199996274122248</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -8400,13 +8468,13 @@
         </is>
       </c>
       <c r="E21" t="n">
+        <v>1177.6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G21" t="n">
         <v>51200</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1177.6</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.023</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -8448,13 +8516,13 @@
         </is>
       </c>
       <c r="E22" t="n">
+        <v>4809.29</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01250000437565814</v>
+      </c>
+      <c r="G22" t="n">
         <v>384743.06531967</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4809.29</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.01250000437565814</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -8496,13 +8564,13 @@
         </is>
       </c>
       <c r="E23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.001113767185970641</v>
+      </c>
+      <c r="G23" t="n">
         <v>35.9141484</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.001113767185970641</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -8544,13 +8612,13 @@
         </is>
       </c>
       <c r="E24" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5.006010867063007e-06</v>
+      </c>
+      <c r="G24" t="n">
         <v>273671</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="G24" t="n">
-        <v>5.006010867063007e-06</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -8592,13 +8660,13 @@
         </is>
       </c>
       <c r="E25" t="n">
+        <v>35.33</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.999373132664089e-06</v>
+      </c>
+      <c r="G25" t="n">
         <v>7066886</v>
-      </c>
-      <c r="F25" t="n">
-        <v>35.33</v>
-      </c>
-      <c r="G25" t="n">
-        <v>4.999373132664089e-06</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -8640,13 +8708,13 @@
         </is>
       </c>
       <c r="E26" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.998721087441079e-05</v>
+      </c>
+      <c r="G26" t="n">
         <v>273670</v>
-      </c>
-      <c r="F26" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="G26" t="n">
-        <v>4.998721087441079e-05</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -8688,13 +8756,13 @@
         </is>
       </c>
       <c r="E27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.035971223021583e-05</v>
+      </c>
+      <c r="G27" t="n">
         <v>1390</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5.035971223021583e-05</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -8736,13 +8804,13 @@
         </is>
       </c>
       <c r="E28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.032258064516129e-06</v>
+      </c>
+      <c r="G28" t="n">
         <v>4960</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G28" t="n">
-        <v>4.032258064516129e-06</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -8784,13 +8852,13 @@
         </is>
       </c>
       <c r="E29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7.287567409998543e-07</v>
+      </c>
+      <c r="G29" t="n">
         <v>13722</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G29" t="n">
-        <v>7.287567409998543e-07</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -8832,13 +8900,13 @@
         </is>
       </c>
       <c r="E30" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.02300675131171473</v>
+      </c>
+      <c r="G30" t="n">
         <v>724.13526683</v>
-      </c>
-      <c r="F30" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.02300675131171473</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -8880,13 +8948,13 @@
         </is>
       </c>
       <c r="E31" t="n">
+        <v>4890.94</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0009900008439956436</v>
+      </c>
+      <c r="G31" t="n">
         <v>4940339.22260123</v>
-      </c>
-      <c r="F31" t="n">
-        <v>4890.94</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0009900008439956436</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -8928,13 +8996,13 @@
         </is>
       </c>
       <c r="E32" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.02099789989806842</v>
+      </c>
+      <c r="G32" t="n">
         <v>158.58728807</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.02099789989806842</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -8976,13 +9044,13 @@
         </is>
       </c>
       <c r="E33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5.517522150440866e-06</v>
+      </c>
+      <c r="G33" t="n">
         <v>186678</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="G33" t="n">
-        <v>5.517522150440866e-06</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -9024,13 +9092,13 @@
         </is>
       </c>
       <c r="E34" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.026002306634085</v>
+      </c>
+      <c r="G34" t="n">
         <v>756.4713499</v>
-      </c>
-      <c r="F34" t="n">
-        <v>19.67</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.026002306634085</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -9072,13 +9140,13 @@
         </is>
       </c>
       <c r="E35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.02378646248018406</v>
+      </c>
+      <c r="G35" t="n">
         <v>3.36325757</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.02378646248018406</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -9120,13 +9188,13 @@
         </is>
       </c>
       <c r="E36" t="n">
+        <v>1046.78</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.499996548367517e-06</v>
+      </c>
+      <c r="G36" t="n">
         <v>418712578.0967743</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1046.78</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2.499996548367517e-06</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -9160,13 +9228,13 @@
         </is>
       </c>
       <c r="E37" t="n">
+        <v>65.67</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5.000197967332344e-06</v>
+      </c>
+      <c r="G37" t="n">
         <v>13133480</v>
-      </c>
-      <c r="F37" t="n">
-        <v>65.67</v>
-      </c>
-      <c r="G37" t="n">
-        <v>5.000197967332344e-06</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -9208,13 +9276,13 @@
         </is>
       </c>
       <c r="E38" t="n">
+        <v>4447.77</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4.000002169537822e-07</v>
+      </c>
+      <c r="G38" t="n">
         <v>11119418969</v>
-      </c>
-      <c r="F38" t="n">
-        <v>4447.77</v>
-      </c>
-      <c r="G38" t="n">
-        <v>4.000002169537822e-07</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -9256,13 +9324,13 @@
         </is>
       </c>
       <c r="E39" t="n">
+        <v>132.63</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4.999943829327409e-06</v>
+      </c>
+      <c r="G39" t="n">
         <v>26526298</v>
-      </c>
-      <c r="F39" t="n">
-        <v>132.63</v>
-      </c>
-      <c r="G39" t="n">
-        <v>4.999943829327409e-06</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -9304,13 +9372,13 @@
         </is>
       </c>
       <c r="E40" t="n">
+        <v>35.35</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3.999803981317759e-07</v>
+      </c>
+      <c r="G40" t="n">
         <v>88379331</v>
-      </c>
-      <c r="F40" t="n">
-        <v>35.35</v>
-      </c>
-      <c r="G40" t="n">
-        <v>3.999803981317759e-07</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -9352,13 +9420,13 @@
         </is>
       </c>
       <c r="E41" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5.008944543828265e-05</v>
+      </c>
+      <c r="G41" t="n">
         <v>8385</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="G41" t="n">
-        <v>5.008944543828265e-05</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -9400,13 +9468,13 @@
         </is>
       </c>
       <c r="E42" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.0000275677275e-07</v>
+      </c>
+      <c r="G42" t="n">
         <v>1282964631.580645</v>
-      </c>
-      <c r="F42" t="n">
-        <v>128.3</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1.0000275677275e-07</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -9440,13 +9508,13 @@
         </is>
       </c>
       <c r="E43" t="n">
+        <v>649.63</v>
+      </c>
+      <c r="F43" t="n">
+        <v>9.99993538994191e-07</v>
+      </c>
+      <c r="G43" t="n">
         <v>649634197.2903224</v>
-      </c>
-      <c r="F43" t="n">
-        <v>649.63</v>
-      </c>
-      <c r="G43" t="n">
-        <v>9.99993538994191e-07</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -9480,13 +9548,13 @@
         </is>
       </c>
       <c r="E44" t="n">
+        <v>709.76</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.02299997065552781</v>
+      </c>
+      <c r="G44" t="n">
         <v>30859.16980635</v>
-      </c>
-      <c r="F44" t="n">
-        <v>709.76</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.02299997065552781</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -9528,13 +9596,13 @@
         </is>
       </c>
       <c r="E45" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.000989948930320117</v>
+      </c>
+      <c r="G45" t="n">
         <v>24688.1422379</v>
-      </c>
-      <c r="F45" t="n">
-        <v>24.44</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.000989948930320117</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -9576,13 +9644,13 @@
         </is>
       </c>
       <c r="E46" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.003984502684462691</v>
+      </c>
+      <c r="G46" t="n">
         <v>178.19036809</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.003984502684462691</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -9624,13 +9692,13 @@
         </is>
       </c>
       <c r="E47" t="n">
+        <v>941.22</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.02200000919679435</v>
+      </c>
+      <c r="G47" t="n">
         <v>42782.70938801</v>
-      </c>
-      <c r="F47" t="n">
-        <v>941.22</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.02200000919679435</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -9672,13 +9740,13 @@
         </is>
       </c>
       <c r="E48" t="n">
+        <v>1177.6</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G48" t="n">
         <v>51200</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1177.6</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.023</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -9720,13 +9788,13 @@
         </is>
       </c>
       <c r="E49" t="n">
+        <v>16842.03</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.01250000300985418</v>
+      </c>
+      <c r="G49" t="n">
         <v>1347362.07557093</v>
-      </c>
-      <c r="F49" t="n">
-        <v>16842.03</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.01250000300985418</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -9749,7 +9817,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -9785,23 +9853,23 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>TotalCost</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>BlendedRate</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>UsageQuantity</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>TotalCost</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>BlendedRate</t>
         </is>
       </c>
     </row>
     <row r="2"/>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -9827,17 +9895,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>TotalCost</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>BlendedRate</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>UsageQuantity</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>TotalCost</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>BlendedRate</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -9862,13 +9930,13 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1323007436690952</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.60468292</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1323007436690952</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -9889,13 +9957,13 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1060526885311017</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.56575652</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1060526885311017</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -9916,13 +9984,13 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08398407529533976</v>
+      </c>
+      <c r="E5" t="n">
         <v>2.02419327</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.08398407529533976</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -9943,13 +10011,13 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>10180.68</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.245000052133528</v>
+      </c>
+      <c r="E6" t="n">
         <v>133735.65281533</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10180.68</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.245000052133528</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -9970,13 +10038,13 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01010056913027556</v>
+      </c>
+      <c r="E7" t="n">
         <v>6.93030255</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.01010056913027556</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
@@ -9995,13 +10063,13 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>3615.599999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2599548029822918</v>
+      </c>
+      <c r="E8" t="n">
         <v>41934.23812719</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3615.599999999999</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2599548029822918</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -10022,13 +10090,13 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02082687144935165</v>
+      </c>
+      <c r="E9" t="n">
         <v>2.40074464</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.02082687144935165</v>
       </c>
       <c r="F9" t="n">
         <v>0.08</v>
@@ -10047,13 +10115,13 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1622577319662903</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.61630345</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1622577319662903</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -10074,13 +10142,13 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1130842145383057</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.44214836</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1130842145383057</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -10101,13 +10169,13 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1474369559576325</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.0678256</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.1474369559576325</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -10128,13 +10196,13 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1077555513594746</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.27840793</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.1077555513594746</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -10155,13 +10223,13 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.08500735898491028</v>
+      </c>
+      <c r="E14" t="n">
         <v>377.84964012</v>
-      </c>
-      <c r="D14" t="n">
-        <v>32.12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.08500735898491028</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -10182,13 +10250,13 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02167327782915248</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.92279535</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.02167327782915248</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -10209,13 +10277,13 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01981675297912877</v>
+      </c>
+      <c r="E16" t="n">
         <v>15.13870614</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.01981675297912877</v>
       </c>
       <c r="F16" t="n">
         <v>0.01</v>
@@ -10234,13 +10302,13 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01956659384801146</v>
+      </c>
+      <c r="E17" t="n">
         <v>6.13290187</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.01956659384801146</v>
       </c>
       <c r="F17" t="n">
         <v>0.01</v>
@@ -10259,13 +10327,13 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.008553488655392525</v>
+      </c>
+      <c r="E18" t="n">
         <v>1.16911361</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.008553488655392525</v>
       </c>
       <c r="F18" t="n">
         <v>0.01</v>
@@ -10284,13 +10352,13 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01313745286019165</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.76118256</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.01313745286019165</v>
       </c>
       <c r="F19" t="n">
         <v>0.01</v>
@@ -10309,13 +10377,13 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>739.84</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.08999981766502121</v>
+      </c>
+      <c r="E20" t="n">
         <v>8220.46109864</v>
-      </c>
-      <c r="D20" t="n">
-        <v>739.84</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.08999981766502121</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -10336,13 +10404,13 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>424.76</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.009999937809003405</v>
+      </c>
+      <c r="E21" t="n">
         <v>42476.26416412</v>
-      </c>
-      <c r="D21" t="n">
-        <v>424.76</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.009999937809003405</v>
       </c>
       <c r="F21" t="n">
         <v>0.01</v>
@@ -10361,13 +10429,13 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.02018719866611401</v>
+      </c>
+      <c r="E22" t="n">
         <v>26.25426186</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.02018719866611401</v>
       </c>
       <c r="F22" t="n">
         <v>0.01</v>
@@ -10386,13 +10454,13 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.02000539487323907</v>
+      </c>
+      <c r="E23" t="n">
         <v>586.84170317</v>
-      </c>
-      <c r="D23" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.02000539487323907</v>
       </c>
       <c r="F23" t="n">
         <v>0.01</v>
@@ -10411,13 +10479,13 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1230826113871478</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.16249249</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.1230826113871478</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -10429,7 +10497,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -10465,17 +10533,17 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>TotalCost</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>BlendedRate</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>UsageQuantity</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>TotalCost</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>BlendedRate</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -10510,13 +10578,13 @@
         </is>
       </c>
       <c r="E3" t="n">
+        <v>26</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G3" t="n">
         <v>5200</v>
-      </c>
-      <c r="F3" t="n">
-        <v>26</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.005</v>
       </c>
       <c r="H3" t="n">
         <v>50.40000000000001</v>
@@ -10545,13 +10613,13 @@
         </is>
       </c>
       <c r="E4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.005006729475100943</v>
+      </c>
+      <c r="G4" t="n">
         <v>743</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.005006729475100943</v>
       </c>
       <c r="H4" t="n">
         <v>7.2</v>
@@ -10580,13 +10648,13 @@
         </is>
       </c>
       <c r="E5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G5" t="n">
         <v>740</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.005</v>
       </c>
       <c r="H5" t="n">
         <v>7.2</v>
@@ -10615,13 +10683,13 @@
         </is>
       </c>
       <c r="E6" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.005000229578952201</v>
+      </c>
+      <c r="G6" t="n">
         <v>8711.6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>43.56</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.005000229578952201</v>
       </c>
       <c r="H6" t="n">
         <v>86.39999999999999</v>
@@ -10631,6 +10699,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>